--- a/other_result/SM_extend_iteration.xlsx
+++ b/other_result/SM_extend_iteration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\智能化学合成\论文\新数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35CBE9EB-3808-404D-80E4-BA48E37DD778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D08A4D0-1926-476E-B5E3-4B1A7520A070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
   <si>
     <t>prob</t>
   </si>
@@ -718,1051 +718,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Suzuki</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t> HTE Dataset R²</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>reborn!$C$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>r²</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>reborn!$B$24:$B$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>396</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>648</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1152</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1404</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1656</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1908</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2160</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2412</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2664</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2916</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3168</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3420</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3672</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3924</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4176</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4428</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4680</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4932</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5184</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>reborn!$C$24:$C$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.4848198220836285</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.62896605374403902</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.69754744772870003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.76218822343143799</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.78784359050608954</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.80392344686668094</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.81772134219743697</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.82434093083354254</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.82902780896060202</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.84371969415587855</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.84834749354843197</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.85418212961773954</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.86652301152956146</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.86808985696068752</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.88605981839766645</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.90464027337145403</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.91780755958015048</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.919200514848586</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.92811447764938992</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.94235449171436292</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.94642823522117991</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F087-4D19-9A31-3B5FD82C3540}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="105323135"/>
-        <c:axId val="105324799"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="105323135"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="105324799"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="105324799"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="105323135"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{333D6E2F-3540-4976-B0D3-28B72F47E3A2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2062,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G44" sqref="F24:G44"/>
+      <selection activeCell="A44" sqref="A19:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2187,15 +1142,15 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K22" si="0">AVERAGE(C3:D3)</f>
+        <f t="shared" ref="K3:K18" si="0">AVERAGE(C3:D3)</f>
         <v>0.62896605374403902</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L22" si="1">AVERAGE(E3:F3)</f>
+        <f t="shared" ref="L3:L18" si="1">AVERAGE(E3:F3)</f>
         <v>12.132096001271101</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M22" si="2">AVERAGE(G3:H3)</f>
+        <f t="shared" ref="M3:M18" si="2">AVERAGE(G3:H3)</f>
         <v>17.08356094215635</v>
       </c>
     </row>
@@ -2857,496 +1812,11 @@
       <c r="M18">
         <f t="shared" si="2"/>
         <v>8.3055010639965197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>52</v>
-      </c>
-      <c r="B19">
-        <v>4428</v>
-      </c>
-      <c r="C19">
-        <v>0.91939082374730796</v>
-      </c>
-      <c r="D19">
-        <v>0.91901020594986405</v>
-      </c>
-      <c r="E19">
-        <v>5.5878611233718196</v>
-      </c>
-      <c r="F19">
-        <v>5.5986936615203398</v>
-      </c>
-      <c r="G19">
-        <v>8.1816781886004097</v>
-      </c>
-      <c r="H19">
-        <v>8.20097143239812</v>
-      </c>
-      <c r="I19">
-        <v>300</v>
-      </c>
-      <c r="J19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="0"/>
-        <v>0.919200514848586</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="1"/>
-        <v>5.5932773924460797</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="2"/>
-        <v>8.191324810499264</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>58</v>
-      </c>
-      <c r="B20">
-        <v>4680</v>
-      </c>
-      <c r="C20">
-        <v>0.92823769277445201</v>
-      </c>
-      <c r="D20">
-        <v>0.92799126252432795</v>
-      </c>
-      <c r="E20">
-        <v>5.3528185178009799</v>
-      </c>
-      <c r="F20">
-        <v>5.3666610980436404</v>
-      </c>
-      <c r="G20">
-        <v>7.8794462339116196</v>
-      </c>
-      <c r="H20">
-        <v>7.8929635654257799</v>
-      </c>
-      <c r="I20">
-        <v>300</v>
-      </c>
-      <c r="J20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="0"/>
-        <v>0.92811447764938992</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="1"/>
-        <v>5.3597398079223098</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="2"/>
-        <v>7.8862048996686998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>60</v>
-      </c>
-      <c r="B21">
-        <v>4932</v>
-      </c>
-      <c r="C21">
-        <v>0.94229173306328395</v>
-      </c>
-      <c r="D21">
-        <v>0.94241725036544199</v>
-      </c>
-      <c r="E21">
-        <v>5.01047005676942</v>
-      </c>
-      <c r="F21">
-        <v>5.0056526171217204</v>
-      </c>
-      <c r="G21">
-        <v>7.3432310559391496</v>
-      </c>
-      <c r="H21">
-        <v>7.3352408291567501</v>
-      </c>
-      <c r="I21">
-        <v>300</v>
-      </c>
-      <c r="J21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="0"/>
-        <v>0.94235449171436292</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="1"/>
-        <v>5.0080613369455698</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="2"/>
-        <v>7.3392359425479494</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>52</v>
-      </c>
-      <c r="B22">
-        <v>5184</v>
-      </c>
-      <c r="C22">
-        <v>0.94620266807834796</v>
-      </c>
-      <c r="D22">
-        <v>0.94665380236401198</v>
-      </c>
-      <c r="E22">
-        <v>4.8645791425061899</v>
-      </c>
-      <c r="F22">
-        <v>4.8677235584376897</v>
-      </c>
-      <c r="G22">
-        <v>7.2875727816332203</v>
-      </c>
-      <c r="H22">
-        <v>7.2569523463006904</v>
-      </c>
-      <c r="I22">
-        <v>300</v>
-      </c>
-      <c r="J22" t="s">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="0"/>
-        <v>0.94642823522117991</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="1"/>
-        <v>4.8661513504719398</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="2"/>
-        <v>7.2722625639669554</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <v>144</v>
-      </c>
-      <c r="C24">
-        <v>0.4848198220836285</v>
-      </c>
-      <c r="D24">
-        <v>15.250694527474149</v>
-      </c>
-      <c r="E24">
-        <v>20.173368651946149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B25">
-        <v>396</v>
-      </c>
-      <c r="C25">
-        <v>0.62896605374403902</v>
-      </c>
-      <c r="D25">
-        <v>12.132096001271101</v>
-      </c>
-      <c r="E25">
-        <v>17.08356094215635</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>648</v>
-      </c>
-      <c r="C26">
-        <v>0.69754744772870003</v>
-      </c>
-      <c r="D26">
-        <v>10.859575133987601</v>
-      </c>
-      <c r="E26">
-        <v>15.3762099458525</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B27">
-        <v>900</v>
-      </c>
-      <c r="C27">
-        <v>0.76218822343143799</v>
-      </c>
-      <c r="D27">
-        <v>9.4956848613407061</v>
-      </c>
-      <c r="E27">
-        <v>13.566443318192199</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B28">
-        <v>1152</v>
-      </c>
-      <c r="C28">
-        <v>0.78784359050608954</v>
-      </c>
-      <c r="D28">
-        <v>8.9328552075613388</v>
-      </c>
-      <c r="E28">
-        <v>12.8063721242413</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B29">
-        <v>1404</v>
-      </c>
-      <c r="C29">
-        <v>0.80392344686668094</v>
-      </c>
-      <c r="D29">
-        <v>8.5309516917866794</v>
-      </c>
-      <c r="E29">
-        <v>12.325914772037651</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>1656</v>
-      </c>
-      <c r="C30">
-        <v>0.81772134219743697</v>
-      </c>
-      <c r="D30">
-        <v>8.3210460739075316</v>
-      </c>
-      <c r="E30">
-        <v>11.8975058530627</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <v>1908</v>
-      </c>
-      <c r="C31">
-        <v>0.82434093083354254</v>
-      </c>
-      <c r="D31">
-        <v>8.1437129651807503</v>
-      </c>
-      <c r="E31">
-        <v>11.61203631159735</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B32">
-        <v>2160</v>
-      </c>
-      <c r="C32">
-        <v>0.82902780896060202</v>
-      </c>
-      <c r="D32">
-        <v>7.9163236648243451</v>
-      </c>
-      <c r="E32">
-        <v>11.43780206532435</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33">
-        <v>2412</v>
-      </c>
-      <c r="C33">
-        <v>0.84371969415587855</v>
-      </c>
-      <c r="D33">
-        <v>7.5194585708175499</v>
-      </c>
-      <c r="E33">
-        <v>10.99907389922245</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34">
-        <v>2664</v>
-      </c>
-      <c r="C34">
-        <v>0.84834749354843197</v>
-      </c>
-      <c r="D34">
-        <v>7.4537898287629352</v>
-      </c>
-      <c r="E34">
-        <v>10.909485450526851</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35">
-        <v>2916</v>
-      </c>
-      <c r="C35">
-        <v>0.85418212961773954</v>
-      </c>
-      <c r="D35">
-        <v>7.36085352363465</v>
-      </c>
-      <c r="E35">
-        <v>10.7478698443963</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36">
-        <v>3168</v>
-      </c>
-      <c r="C36">
-        <v>0.86652301152956146</v>
-      </c>
-      <c r="D36">
-        <v>7.1184036829669299</v>
-      </c>
-      <c r="E36">
-        <v>10.375118518450099</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37">
-        <v>3420</v>
-      </c>
-      <c r="C37">
-        <v>0.86808985696068752</v>
-      </c>
-      <c r="D37">
-        <v>6.9882334354254656</v>
-      </c>
-      <c r="E37">
-        <v>10.288252341456801</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38">
-        <v>3672</v>
-      </c>
-      <c r="C38">
-        <v>0.88605981839766645</v>
-      </c>
-      <c r="D38">
-        <v>6.5782417895405052</v>
-      </c>
-      <c r="E38">
-        <v>9.6765943891979234</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39">
-        <v>3924</v>
-      </c>
-      <c r="C39">
-        <v>0.90464027337145403</v>
-      </c>
-      <c r="D39">
-        <v>6.0733838752823948</v>
-      </c>
-      <c r="E39">
-        <v>8.9727737178617897</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40">
-        <v>4176</v>
-      </c>
-      <c r="C40">
-        <v>0.91780755958015048</v>
-      </c>
-      <c r="D40">
-        <v>5.7579521513230949</v>
-      </c>
-      <c r="E40">
-        <v>8.3055010639965197</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41">
-        <v>4428</v>
-      </c>
-      <c r="C41">
-        <v>0.919200514848586</v>
-      </c>
-      <c r="D41">
-        <v>5.5932773924460797</v>
-      </c>
-      <c r="E41">
-        <v>8.191324810499264</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42">
-        <v>4680</v>
-      </c>
-      <c r="C42">
-        <v>0.92811447764938992</v>
-      </c>
-      <c r="D42">
-        <v>5.3597398079223098</v>
-      </c>
-      <c r="E42">
-        <v>7.8862048996686998</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43">
-        <v>4932</v>
-      </c>
-      <c r="C43">
-        <v>0.94235449171436292</v>
-      </c>
-      <c r="D43">
-        <v>5.0080613369455698</v>
-      </c>
-      <c r="E43">
-        <v>7.3392359425479494</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44">
-        <v>5184</v>
-      </c>
-      <c r="C44">
-        <v>0.94642823522117991</v>
-      </c>
-      <c r="D44">
-        <v>4.8661513504719398</v>
-      </c>
-      <c r="E44">
-        <v>7.2722625639669554</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/other_result/SM_extend_iteration.xlsx
+++ b/other_result/SM_extend_iteration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\智能化学合成\论文\新数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D08A4D0-1926-476E-B5E3-4B1A7520A070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C252B2DD-98CA-4076-842C-3A1949696DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reborn" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
   <si>
     <t>prob</t>
   </si>
@@ -721,9 +721,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -761,7 +761,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -867,7 +867,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1009,7 +1009,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1017,15 +1017,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A19:XFD44"/>
+      <selection activeCell="K2" sqref="K2:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>26</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>20.173368651946149</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>26</v>
       </c>
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K18" si="0">AVERAGE(C3:D3)</f>
+        <f t="shared" ref="K3:K13" si="0">AVERAGE(C3:D3)</f>
         <v>0.62896605374403902</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L18" si="1">AVERAGE(E3:F3)</f>
+        <f t="shared" ref="L3:L13" si="1">AVERAGE(E3:F3)</f>
         <v>12.132096001271101</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M18" si="2">AVERAGE(G3:H3)</f>
+        <f t="shared" ref="M3:M13" si="2">AVERAGE(G3:H3)</f>
         <v>17.08356094215635</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>34</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>15.3762099458525</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>36</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>13.566443318192199</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>38</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>12.8063721242413</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>44</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>12.325914772037651</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>48</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>11.8975058530627</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>48</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>11.61203631159735</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>44</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>11.43780206532435</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>52</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>10.99907389922245</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>46</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>10.909485450526851</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>46</v>
       </c>
@@ -1592,226 +1592,6 @@
       <c r="M13">
         <f t="shared" si="2"/>
         <v>10.7478698443963</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>54</v>
-      </c>
-      <c r="B14">
-        <v>3168</v>
-      </c>
-      <c r="C14">
-        <v>0.866783745047362</v>
-      </c>
-      <c r="D14">
-        <v>0.86626227801176103</v>
-      </c>
-      <c r="E14">
-        <v>7.1136447550633797</v>
-      </c>
-      <c r="F14">
-        <v>7.1231626108704802</v>
-      </c>
-      <c r="G14">
-        <v>10.364985147295799</v>
-      </c>
-      <c r="H14">
-        <v>10.385251889604399</v>
-      </c>
-      <c r="I14">
-        <v>300</v>
-      </c>
-      <c r="J14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>0.86652301152956146</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="1"/>
-        <v>7.1184036829669299</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="2"/>
-        <v>10.375118518450099</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>48</v>
-      </c>
-      <c r="B15">
-        <v>3420</v>
-      </c>
-      <c r="C15">
-        <v>0.86818473627346504</v>
-      </c>
-      <c r="D15">
-        <v>0.86799497764791</v>
-      </c>
-      <c r="E15">
-        <v>6.9854681886248899</v>
-      </c>
-      <c r="F15">
-        <v>6.9909986822260404</v>
-      </c>
-      <c r="G15">
-        <v>10.284552313484699</v>
-      </c>
-      <c r="H15">
-        <v>10.2919523694289</v>
-      </c>
-      <c r="I15">
-        <v>300</v>
-      </c>
-      <c r="J15" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>0.86808985696068752</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="1"/>
-        <v>6.9882334354254656</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="2"/>
-        <v>10.288252341456801</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>40</v>
-      </c>
-      <c r="B16">
-        <v>3672</v>
-      </c>
-      <c r="C16">
-        <v>0.88572796691950795</v>
-      </c>
-      <c r="D16">
-        <v>0.88639166987582496</v>
-      </c>
-      <c r="E16">
-        <v>6.5900750887526502</v>
-      </c>
-      <c r="F16">
-        <v>6.5664084903283602</v>
-      </c>
-      <c r="G16">
-        <v>9.6906859893531792</v>
-      </c>
-      <c r="H16">
-        <v>9.6625027890426693</v>
-      </c>
-      <c r="I16">
-        <v>300</v>
-      </c>
-      <c r="J16" t="s">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="0"/>
-        <v>0.88605981839766645</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="1"/>
-        <v>6.5782417895405052</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="2"/>
-        <v>9.6765943891979234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>48</v>
-      </c>
-      <c r="B17">
-        <v>3924</v>
-      </c>
-      <c r="C17">
-        <v>0.90488747841032102</v>
-      </c>
-      <c r="D17">
-        <v>0.90439306833258704</v>
-      </c>
-      <c r="E17">
-        <v>6.0765644372010099</v>
-      </c>
-      <c r="F17">
-        <v>6.0702033133637796</v>
-      </c>
-      <c r="G17">
-        <v>8.9611434485611792</v>
-      </c>
-      <c r="H17">
-        <v>8.9844039871624002</v>
-      </c>
-      <c r="I17">
-        <v>300</v>
-      </c>
-      <c r="J17" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="0"/>
-        <v>0.90464027337145403</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="1"/>
-        <v>6.0733838752823948</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="2"/>
-        <v>8.9727737178617897</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>58</v>
-      </c>
-      <c r="B18">
-        <v>4176</v>
-      </c>
-      <c r="C18">
-        <v>0.917670031690622</v>
-      </c>
-      <c r="D18">
-        <v>0.91794508746967896</v>
-      </c>
-      <c r="E18">
-        <v>5.7539816437726001</v>
-      </c>
-      <c r="F18">
-        <v>5.7619226588735897</v>
-      </c>
-      <c r="G18">
-        <v>8.3124496277967204</v>
-      </c>
-      <c r="H18">
-        <v>8.2985525001963207</v>
-      </c>
-      <c r="I18">
-        <v>300</v>
-      </c>
-      <c r="J18" t="s">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="0"/>
-        <v>0.91780755958015048</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="1"/>
-        <v>5.7579521513230949</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="2"/>
-        <v>8.3055010639965197</v>
       </c>
     </row>
   </sheetData>
